--- a/data/georgia_census/samegrelo/walenjixa/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/walenjixa/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B59FF879-21CE-4164-BBBF-B6CC14B2C6D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3BA977-808C-490F-A7C5-76540F6E55B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B5EF2B-19FC-45A2-B4D4-4241BE36EC50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{700B82E1-A24D-4F14-A75F-FCBF7229580C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF58A6B-166D-47E1-AF2B-B943F1D320F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6ED00B5-5670-492A-9787-642B9A967DE3}"/>
 </file>